--- a/Datasets/R2_errors.xlsx
+++ b/Datasets/R2_errors.xlsx
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.0027313232421875</v>
+        <v>0.002727508544921875</v>
       </c>
       <c r="D2">
-        <v>0.001235008239746094</v>
+        <v>0.001238822937011719</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -471,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-0.04876708984375</v>
+        <v>-0.04925537109375</v>
       </c>
       <c r="D5">
-        <v>-0.07513427734375</v>
+        <v>-0.0650634765625</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -502,7 +502,7 @@
         <v>-0.09039306640625</v>
       </c>
       <c r="D7">
-        <v>-0.28271484375</v>
+        <v>-0.27880859375</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -513,10 +513,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>-0.003274917602539062</v>
+        <v>0.001157760620117188</v>
       </c>
       <c r="D8">
-        <v>-0.02569580078125</v>
+        <v>-0.0177154541015625</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -527,10 +527,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>-0.06298828125</v>
+        <v>-0.06256103515625</v>
       </c>
       <c r="D9">
-        <v>-0.1373291015625</v>
+        <v>-0.145751953125</v>
       </c>
     </row>
   </sheetData>
